--- a/BOM BLDC BOARD.xlsx
+++ b/BOM BLDC BOARD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/rover-embedded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AD4220-686B-4229-9CBD-F145456BD25A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="8" windowWidth="12690" windowHeight="14084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Specification" sheetId="5" r:id="rId1"/>
@@ -639,12 +639,6 @@
     <t>490-3992-1-ND</t>
   </si>
   <si>
-    <t>WM1816-ND</t>
-  </si>
-  <si>
-    <t>Molex 43045-0800</t>
-  </si>
-  <si>
     <t>Tray</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>CONN HEADER SMD R/A 12POS 2.5MM</t>
   </si>
   <si>
-    <t>CONN HEADER R/A 8POS 3MM</t>
-  </si>
-  <si>
     <t>FERRITE BEAD 220 OHM 0603 1LN</t>
   </si>
   <si>
@@ -678,9 +669,6 @@
     <t>CONN HEADER VERT 4POS 3MM</t>
   </si>
   <si>
-    <t>Molex 43045-0428</t>
-  </si>
-  <si>
     <t>WM1860-ND</t>
   </si>
   <si>
@@ -808,6 +796,18 @@
   </si>
   <si>
     <t>493-13394-ND</t>
+  </si>
+  <si>
+    <t>Molex 43045-0427</t>
+  </si>
+  <si>
+    <t>Molex 46207-0004</t>
+  </si>
+  <si>
+    <t>WM21375-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 4POS 4.2MM</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,18 +1028,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1079,6 +1067,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1487,10 +1493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1613,22 +1619,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1655,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1672,20 +1678,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="25.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A2" s="5" t="s">
@@ -1735,10 +1741,10 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1748,14 +1754,14 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="13" t="s">
-        <v>255</v>
+      <c r="I3" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="J3" s="5">
         <v>2</v>
@@ -1771,10 +1777,10 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1784,14 +1790,14 @@
         <v>1206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
-        <v>254</v>
+      <c r="I4" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="J4" s="5">
         <v>8</v>
@@ -1809,27 +1815,27 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="13" t="s">
-        <v>249</v>
+      <c r="I5" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="J5" s="5">
         <v>4</v>
@@ -1847,27 +1853,27 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="13" t="s">
-        <v>246</v>
+      <c r="I6" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="J6" s="5">
         <v>6</v>
@@ -1883,27 +1889,27 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J7" s="5">
         <v>2</v>
@@ -1921,10 +1927,10 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1934,14 +1940,14 @@
         <v>1206</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="13" t="s">
-        <v>240</v>
+      <c r="I8" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="J8" s="5">
         <v>32</v>
@@ -1957,27 +1963,27 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="13" t="s">
-        <v>237</v>
+      <c r="I9" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="J9" s="5">
         <v>5</v>
@@ -1993,27 +1999,27 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="13" t="s">
-        <v>234</v>
+      <c r="I10" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="J10" s="5">
         <v>4</v>
@@ -2029,27 +2035,27 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="13" t="s">
-        <v>231</v>
+      <c r="I11" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
@@ -2065,27 +2071,27 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="13" t="s">
-        <v>228</v>
+      <c r="I12" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
@@ -2103,10 +2109,10 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2116,14 +2122,14 @@
         <v>165</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="13" t="s">
-        <v>227</v>
+      <c r="I13" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="J13" s="5">
         <v>4</v>
@@ -2141,27 +2147,27 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J14" s="5">
         <v>2</v>
@@ -2179,27 +2185,27 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="10">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F15" s="5">
         <v>428202224</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J15" s="5">
         <v>8</v>
@@ -2217,27 +2223,27 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F16" s="5">
         <v>436500200</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J16" s="5">
         <v>16</v>
@@ -2255,27 +2261,27 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F17" s="5">
         <v>430450428</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J17" s="5">
         <v>2</v>
@@ -2293,27 +2299,27 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F18" s="5">
         <v>430450600</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5">
@@ -2329,27 +2335,27 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F19" s="5">
         <v>1054051112</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5">
@@ -2367,27 +2373,27 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="5">
-        <v>430450800</v>
-      </c>
-      <c r="G20" s="5" t="s">
         <v>201</v>
       </c>
+      <c r="F20" s="27">
+        <v>462070004</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>256</v>
+      </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>210</v>
+      <c r="I20" s="28" t="s">
+        <v>257</v>
       </c>
       <c r="J20" s="5">
         <v>6</v>
@@ -2403,16 +2409,16 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2423,7 +2429,7 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J21" s="5">
         <v>9</v>
@@ -2439,16 +2445,16 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2471,26 +2477,26 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J23" s="5">
@@ -2509,26 +2515,26 @@
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="14" t="s">
         <v>180</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="9" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="5">
@@ -2545,48 +2551,48 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="10">
         <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>27</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="9" t="s">
         <v>174</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>120</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2596,29 +2602,29 @@
         <v>182</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="9" t="s">
         <v>175</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="10">
         <v>6</v>
       </c>
       <c r="D27" s="5">
         <v>150</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2628,29 +2634,29 @@
         <v>183</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="9" t="s">
         <v>179</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="22"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>189</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2660,166 +2666,166 @@
         <v>185</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="12" t="s">
         <v>198</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="22"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="17">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="14" t="s">
         <v>186</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="9" t="s">
         <v>194</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" ht="15">
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>187</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="9" t="s">
         <v>195</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="13" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="13" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM BLDC BOARD.xlsx
+++ b/BOM BLDC BOARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/rover-embedded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AD4220-686B-4229-9CBD-F145456BD25A}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45811541-1424-44F2-AF47-04297DD1F842}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="8" windowWidth="12690" windowHeight="14084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Specification" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="258">
   <si>
     <t>Your PCB Specification</t>
   </si>
@@ -678,18 +678,6 @@
     <t>Molex 43650-0200</t>
   </si>
   <si>
-    <t>0428202224-ND</t>
-  </si>
-  <si>
-    <t>CONN HEADER R/A 2POS 10MM</t>
-  </si>
-  <si>
-    <t>Tube</t>
-  </si>
-  <si>
-    <t>Molex 42820-2224</t>
-  </si>
-  <si>
     <t>FERRITE BEAD 40 OHM 0402 1LN</t>
   </si>
   <si>
@@ -808,6 +796,18 @@
   </si>
   <si>
     <t>CONN HEADER VERT 4POS 4.2MM</t>
+  </si>
+  <si>
+    <t>Molex 0768250006</t>
+  </si>
+  <si>
+    <t>WM11971-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 6POS 5.7MM</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1068,12 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,12 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1493,10 +1493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1619,22 +1619,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1678,20 +1678,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="25.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A2" s="5" t="s">
@@ -1754,14 +1754,14 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J3" s="5">
         <v>2</v>
@@ -1790,14 +1790,14 @@
         <v>1206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J4" s="5">
         <v>8</v>
@@ -1828,14 +1828,14 @@
         <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J5" s="5">
         <v>4</v>
@@ -1866,14 +1866,14 @@
         <v>163</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J6" s="5">
         <v>6</v>
@@ -1902,14 +1902,14 @@
         <v>163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J7" s="5">
         <v>2</v>
@@ -1940,14 +1940,14 @@
         <v>1206</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J8" s="5">
         <v>32</v>
@@ -1976,14 +1976,14 @@
         <v>163</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J9" s="5">
         <v>5</v>
@@ -2012,14 +2012,14 @@
         <v>164</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J10" s="5">
         <v>4</v>
@@ -2048,14 +2048,14 @@
         <v>163</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
@@ -2084,14 +2084,14 @@
         <v>164</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
@@ -2122,14 +2122,14 @@
         <v>165</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J13" s="5">
         <v>4</v>
@@ -2160,14 +2160,14 @@
         <v>163</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J14" s="5">
         <v>2</v>
@@ -2192,20 +2192,20 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F15" s="5">
-        <v>428202224</v>
+        <v>768250006</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="J15" s="5">
         <v>8</v>
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>201</v>
@@ -2380,20 +2380,20 @@
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="23">
         <v>462070004</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>256</v>
+      <c r="G20" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="28" t="s">
-        <v>257</v>
+      <c r="I20" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="J20" s="5">
         <v>6</v>
@@ -2575,7 +2575,9 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
@@ -2607,7 +2609,9 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
@@ -2639,7 +2643,9 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="18"/>
     </row>
@@ -2671,7 +2677,9 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="18"/>
     </row>
@@ -2703,7 +2711,9 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
     </row>
@@ -2735,7 +2745,9 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
@@ -2767,7 +2779,9 @@
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="L31" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
@@ -2787,15 +2801,21 @@
       <c r="E32" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="H32" s="19"/>
       <c r="I32" s="9" t="s">
         <v>129</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="L32" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
@@ -2815,15 +2835,21 @@
       <c r="E33" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="H33" s="19"/>
       <c r="I33" s="9" t="s">
         <v>197</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>

--- a/BOM BLDC BOARD.xlsx
+++ b/BOM BLDC BOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/rover-embedded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45811541-1424-44F2-AF47-04297DD1F842}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4111FFE-EEF3-499A-8013-B377CD062EEF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="249">
   <si>
     <t>Your PCB Specification</t>
   </si>
@@ -141,54 +141,24 @@
     <t>Note</t>
   </si>
   <si>
-    <t>2013010A</t>
-  </si>
-  <si>
-    <t>2014547A</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>4010541A</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
     <t>IC2</t>
   </si>
   <si>
-    <t>4040706A</t>
-  </si>
-  <si>
-    <t>1022501A</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>10240102A</t>
-  </si>
-  <si>
-    <t>1021633A</t>
-  </si>
-  <si>
-    <t>1023510A</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
-    <t>1022622B</t>
-  </si>
-  <si>
-    <t>7020644A</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
@@ -201,9 +171,6 @@
     <t>U3</t>
   </si>
   <si>
-    <t>6020800A</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
@@ -423,9 +390,6 @@
     <t>TM4C123GH6PMI</t>
   </si>
   <si>
-    <t>USB type-B jack</t>
-  </si>
-  <si>
     <t>CRYSTAL 16MHZ</t>
   </si>
   <si>
@@ -609,9 +573,6 @@
     <t>QFN65P400X400X80_HS-17N</t>
   </si>
   <si>
-    <t>USB2.5-2H4E</t>
-  </si>
-  <si>
     <t>CRYSTAL_3.2x2.5</t>
   </si>
   <si>
@@ -807,7 +768,19 @@
     <t>CONN HEADER R/A 6POS 5.7MM</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>FC5BQCCMC16.0-T1</t>
+  </si>
+  <si>
+    <t>631-1024-1-ND</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB2.0 TYPEB 4POS R/A</t>
+  </si>
+  <si>
+    <t>WM4064-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tray </t>
   </si>
 </sst>
 </file>
@@ -1002,7 +975,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1661,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1713,10 +1689,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>29</v>
@@ -1742,33 +1718,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5">
+        <f>C3*2</f>
         <v>2</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1778,37 +1755,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5">
         <v>1206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J4" s="5">
-        <v>8</v>
+        <f t="shared" ref="J4:J12" si="0">C4*2</f>
+        <v>2</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -1816,37 +1792,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J5" s="5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -1854,33 +1829,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="J6" s="5">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1890,37 +1866,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="J7" s="5">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -1928,33 +1903,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5">
         <v>1206</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="J8" s="5">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1964,33 +1940,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J9" s="5">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2000,33 +1977,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="9" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J10" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2036,33 +2014,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K11" s="5">
         <v>6</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2072,37 +2053,36 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="J12" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2110,37 +2090,35 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2148,37 +2126,35 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2186,37 +2162,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F15" s="5">
         <v>768250006</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" s="5">
-        <v>8</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>6</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -2224,37 +2198,35 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F16" s="5">
         <v>436500200</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J16" s="5">
-        <v>16</v>
-      </c>
-      <c r="K16" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2262,37 +2234,35 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F17" s="5">
         <v>430450428</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J17" s="5">
-        <v>2</v>
-      </c>
-      <c r="K17" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>4</v>
+      </c>
       <c r="L17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2300,33 +2270,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C18" s="10">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F18" s="5">
         <v>430450600</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2336,37 +2306,35 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F19" s="5">
         <v>1054051112</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
-        <v>16</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="J19" s="5">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2374,33 +2342,33 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F20" s="23">
         <v>462070004</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="J20" s="5">
-        <v>6</v>
-      </c>
-      <c r="K20" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
+        <v>4</v>
+      </c>
       <c r="L20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2410,33 +2378,33 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J21" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2446,19 +2414,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2468,7 +2436,7 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2478,37 +2446,36 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J23" s="5">
-        <v>7</v>
+        <f>C23*2</f>
+        <v>2</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="13.5">
@@ -2516,33 +2483,34 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C24" s="10">
         <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J24" s="5">
-        <v>3</v>
+        <f t="shared" ref="J24:J27" si="1">C24*2</f>
+        <v>12</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -2552,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
@@ -2561,22 +2529,25 @@
         <v>27</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
@@ -2586,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -2595,22 +2566,25 @@
         <v>120</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -2620,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C27" s="10">
         <v>6</v>
@@ -2629,22 +2603,25 @@
         <v>150</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>167</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="18"/>
@@ -2654,31 +2631,33 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="J28" s="5">
+        <v>4</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="18"/>
@@ -2688,31 +2667,33 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="J29" s="5">
+        <v>4</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -2722,31 +2703,33 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="J30" s="5">
+        <v>64</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -2756,31 +2739,33 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="J31" s="29">
+        <v>16</v>
+      </c>
       <c r="K31" s="19"/>
       <c r="L31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -2790,31 +2775,33 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="F32" s="29">
+        <v>670688010</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="19"/>
+        <v>246</v>
+      </c>
+      <c r="J32" s="29">
+        <v>4</v>
+      </c>
       <c r="K32" s="19"/>
       <c r="L32" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
@@ -2824,31 +2811,33 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="J33" s="29">
+        <v>4</v>
+      </c>
       <c r="K33" s="19"/>
       <c r="L33" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -2900,30 +2889,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3">
         <v>80478</v>
@@ -2932,7 +2921,7 @@
         <v>54614</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>360</v>
@@ -2940,10 +2929,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>126678</v>
@@ -2952,7 +2941,7 @@
         <v>54614</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2">
         <v>360</v>
@@ -2960,10 +2949,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>80478</v>
@@ -2972,7 +2961,7 @@
         <v>23614</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2">
         <v>360</v>
@@ -2980,10 +2969,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3">
         <v>126678</v>
@@ -2992,7 +2981,7 @@
         <v>23614</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2">
         <v>360</v>
@@ -3000,10 +2989,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3">
         <v>70648</v>
@@ -3012,7 +3001,7 @@
         <v>54995</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>360</v>
@@ -3020,10 +3009,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3">
         <v>116848</v>
@@ -3032,7 +3021,7 @@
         <v>54995</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>360</v>
@@ -3040,10 +3029,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3">
         <v>70648</v>
@@ -3052,7 +3041,7 @@
         <v>23995</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>360</v>
@@ -3060,10 +3049,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3">
         <v>116848</v>
@@ -3072,7 +3061,7 @@
         <v>23995</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>360</v>
@@ -3080,10 +3069,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3">
         <v>80478</v>
@@ -3092,7 +3081,7 @@
         <v>56646</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2">
         <v>180</v>
@@ -3100,10 +3089,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>126678</v>
@@ -3112,7 +3101,7 @@
         <v>56646</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2">
         <v>180</v>
@@ -3120,10 +3109,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>80478</v>
@@ -3132,7 +3121,7 @@
         <v>25646</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2">
         <v>180</v>
@@ -3140,10 +3129,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>126678</v>
@@ -3152,7 +3141,7 @@
         <v>25646</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2">
         <v>180</v>
@@ -3160,10 +3149,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
         <v>70648</v>
@@ -3172,7 +3161,7 @@
         <v>57027</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2">
         <v>180</v>
@@ -3180,10 +3169,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>116848</v>
@@ -3192,7 +3181,7 @@
         <v>57027</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2">
         <v>180</v>
@@ -3200,10 +3189,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>70648</v>
@@ -3212,7 +3201,7 @@
         <v>26027</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2">
         <v>180</v>
@@ -3220,10 +3209,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>116848</v>
@@ -3232,7 +3221,7 @@
         <v>26027</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2">
         <v>180</v>
@@ -3240,10 +3229,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>77010</v>
@@ -3252,7 +3241,7 @@
         <v>55683</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2">
         <v>90</v>
@@ -3260,10 +3249,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>123210</v>
@@ -3272,7 +3261,7 @@
         <v>55683</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2">
         <v>90</v>
@@ -3280,10 +3269,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
         <v>77010</v>
@@ -3292,7 +3281,7 @@
         <v>24683</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2">
         <v>90</v>
@@ -3300,10 +3289,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>123210</v>
@@ -3312,7 +3301,7 @@
         <v>24683</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2">
         <v>90</v>
@@ -3320,10 +3309,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3">
         <v>65949</v>
@@ -3332,7 +3321,7 @@
         <v>56036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2">
         <v>90</v>
@@ -3340,10 +3329,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3">
         <v>112149</v>
@@ -3352,7 +3341,7 @@
         <v>56036</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2">
         <v>90</v>
@@ -3360,10 +3349,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3">
         <v>65949</v>
@@ -3372,7 +3361,7 @@
         <v>25036</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2">
         <v>90</v>
@@ -3380,10 +3369,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3">
         <v>112149</v>
@@ -3392,7 +3381,7 @@
         <v>25036</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2">
         <v>90</v>
@@ -3400,10 +3389,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3">
         <v>36573</v>
@@ -3412,7 +3401,7 @@
         <v>27516</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2">
         <v>180</v>
@@ -3420,10 +3409,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3">
         <v>7573</v>
@@ -3432,7 +3421,7 @@
         <v>27516</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2">
         <v>180</v>
@@ -3440,10 +3429,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3">
         <v>36573</v>
@@ -3452,7 +3441,7 @@
         <v>58516</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2">
         <v>180</v>
@@ -3460,10 +3449,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3">
         <v>7573</v>
@@ -3472,7 +3461,7 @@
         <v>58516</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2">
         <v>180</v>
@@ -3480,10 +3469,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3">
         <v>101259</v>
@@ -3492,7 +3481,7 @@
         <v>50078</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2">
         <v>180</v>
@@ -3500,10 +3489,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3">
         <v>147459</v>
@@ -3512,7 +3501,7 @@
         <v>50078</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2">
         <v>180</v>
@@ -3520,10 +3509,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3">
         <v>101259</v>
@@ -3532,7 +3521,7 @@
         <v>19078</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2">
         <v>180</v>
@@ -3540,10 +3529,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3">
         <v>147459</v>
@@ -3552,7 +3541,7 @@
         <v>19078</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2">
         <v>180</v>
@@ -3560,10 +3549,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3">
         <v>41797</v>
@@ -3572,7 +3561,7 @@
         <v>13240</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2">
         <v>360</v>
@@ -3580,10 +3569,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3">
         <v>12797</v>
@@ -3592,7 +3581,7 @@
         <v>13240</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2">
         <v>360</v>
@@ -3600,10 +3589,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>41797</v>
@@ -3612,7 +3601,7 @@
         <v>44240</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2">
         <v>360</v>
@@ -3620,10 +3609,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3">
         <v>12797</v>
@@ -3632,7 +3621,7 @@
         <v>44240</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F37" s="2">
         <v>360</v>
@@ -3640,10 +3629,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
         <v>88928</v>
@@ -3652,7 +3641,7 @@
         <v>34937</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2">
         <v>270</v>
@@ -3660,10 +3649,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3">
         <v>135128</v>
@@ -3672,7 +3661,7 @@
         <v>34937</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2">
         <v>270</v>
@@ -3680,10 +3669,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3">
         <v>88928</v>
@@ -3692,7 +3681,7 @@
         <v>3937</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2">
         <v>270</v>
@@ -3700,10 +3689,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3">
         <v>135128</v>
@@ -3712,7 +3701,7 @@
         <v>3937</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2">
         <v>270</v>
@@ -3720,10 +3709,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3">
         <v>77200</v>
@@ -3732,7 +3721,7 @@
         <v>59100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2">
         <v>180</v>
@@ -3740,10 +3729,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3">
         <v>123400</v>
@@ -3752,7 +3741,7 @@
         <v>59100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2">
         <v>180</v>
@@ -3760,10 +3749,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3">
         <v>77200</v>
@@ -3772,7 +3761,7 @@
         <v>28100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2">
         <v>180</v>
@@ -3780,10 +3769,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3">
         <v>123400</v>
@@ -3792,7 +3781,7 @@
         <v>28100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2">
         <v>180</v>
@@ -3800,10 +3789,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3">
         <v>66800</v>
@@ -3812,7 +3801,7 @@
         <v>59100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2">
         <v>180</v>
@@ -3820,10 +3809,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3">
         <v>113000</v>
@@ -3832,7 +3821,7 @@
         <v>59100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2">
         <v>180</v>
@@ -3840,10 +3829,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3">
         <v>66800</v>
@@ -3852,7 +3841,7 @@
         <v>28100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2">
         <v>180</v>
@@ -3860,10 +3849,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3">
         <v>113000</v>
@@ -3872,7 +3861,7 @@
         <v>28100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2">
         <v>180</v>
@@ -3880,10 +3869,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3">
         <v>96294</v>
@@ -3892,7 +3881,7 @@
         <v>50177</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2">
         <v>270</v>
@@ -3900,10 +3889,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3">
         <v>142494</v>
@@ -3912,7 +3901,7 @@
         <v>50177</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2">
         <v>270</v>
@@ -3920,10 +3909,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3">
         <v>96294</v>
@@ -3932,7 +3921,7 @@
         <v>19177</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2">
         <v>270</v>
@@ -3940,10 +3929,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3">
         <v>142494</v>
@@ -3952,7 +3941,7 @@
         <v>19177</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2">
         <v>270</v>
@@ -3960,10 +3949,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3">
         <v>88547</v>
@@ -3972,7 +3961,7 @@
         <v>54876</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2">
         <v>180</v>
@@ -3980,10 +3969,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3">
         <v>134747</v>
@@ -3992,7 +3981,7 @@
         <v>54876</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2">
         <v>180</v>
@@ -4000,10 +3989,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3">
         <v>88547</v>
@@ -4012,7 +4001,7 @@
         <v>23876</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2">
         <v>180</v>
@@ -4020,10 +4009,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3">
         <v>134747</v>
@@ -4032,7 +4021,7 @@
         <v>23876</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2">
         <v>180</v>
@@ -4040,10 +4029,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C58" s="3">
         <v>88547</v>
@@ -4052,7 +4041,7 @@
         <v>52463</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2">
         <v>180</v>
@@ -4060,10 +4049,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C59" s="3">
         <v>134747</v>
@@ -4072,7 +4061,7 @@
         <v>52463</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F59" s="2">
         <v>180</v>
@@ -4080,10 +4069,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3">
         <v>88547</v>
@@ -4092,7 +4081,7 @@
         <v>21463</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2">
         <v>180</v>
@@ -4100,10 +4089,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3">
         <v>134747</v>
@@ -4112,7 +4101,7 @@
         <v>21463</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2">
         <v>180</v>
@@ -4120,10 +4109,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3">
         <v>104676</v>
@@ -4132,7 +4121,7 @@
         <v>49466</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2">
         <v>90</v>
@@ -4140,10 +4129,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>150876</v>
@@ -4152,7 +4141,7 @@
         <v>49466</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2">
         <v>90</v>
@@ -4160,10 +4149,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3">
         <v>104676</v>
@@ -4172,7 +4161,7 @@
         <v>18466</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2">
         <v>90</v>
@@ -4180,10 +4169,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3">
         <v>150876</v>
@@ -4192,7 +4181,7 @@
         <v>18466</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2">
         <v>90</v>
@@ -4200,10 +4189,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
         <v>34018</v>
@@ -4212,7 +4201,7 @@
         <v>21054</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2">
         <v>180</v>
@@ -4220,10 +4209,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C67" s="3">
         <v>5018</v>
@@ -4232,7 +4221,7 @@
         <v>21054</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2">
         <v>180</v>
@@ -4240,10 +4229,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3">
         <v>34018</v>
@@ -4252,7 +4241,7 @@
         <v>52054</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2">
         <v>180</v>
@@ -4260,10 +4249,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3">
         <v>5018</v>
@@ -4272,7 +4261,7 @@
         <v>52054</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2">
         <v>180</v>
@@ -4280,10 +4269,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C70" s="3">
         <v>36385</v>
@@ -4292,7 +4281,7 @@
         <v>24130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2">
         <v>180</v>
@@ -4300,10 +4289,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C71" s="3">
         <v>7385</v>
@@ -4312,7 +4301,7 @@
         <v>24130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2">
         <v>180</v>
@@ -4320,10 +4309,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C72" s="3">
         <v>36385</v>
@@ -4332,7 +4321,7 @@
         <v>55130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2">
         <v>180</v>
@@ -4340,10 +4329,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C73" s="3">
         <v>7385</v>
@@ -4352,7 +4341,7 @@
         <v>55130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2">
         <v>180</v>
@@ -4360,10 +4349,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3">
         <v>100993</v>
@@ -4372,7 +4361,7 @@
         <v>51574</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2">
         <v>360</v>
@@ -4380,10 +4369,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3">
         <v>147193</v>
@@ -4392,7 +4381,7 @@
         <v>51574</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2">
         <v>360</v>
@@ -4400,10 +4389,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3">
         <v>100993</v>
@@ -4412,7 +4401,7 @@
         <v>20574</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2">
         <v>360</v>
@@ -4420,10 +4409,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C77" s="3">
         <v>147193</v>
@@ -4432,7 +4421,7 @@
         <v>20574</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2">
         <v>360</v>
@@ -4440,10 +4429,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C78" s="3">
         <v>100993</v>
@@ -4452,7 +4441,7 @@
         <v>49542</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2">
         <v>180</v>
@@ -4460,10 +4449,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3">
         <v>147193</v>
@@ -4472,7 +4461,7 @@
         <v>49542</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2">
         <v>180</v>
@@ -4480,10 +4469,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C80" s="3">
         <v>100993</v>
@@ -4492,7 +4481,7 @@
         <v>18542</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2">
         <v>180</v>
@@ -4500,10 +4489,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C81" s="3">
         <v>147193</v>
@@ -4512,7 +4501,7 @@
         <v>18542</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2">
         <v>180</v>
@@ -4520,10 +4509,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C82" s="3">
         <v>36893</v>
@@ -4532,7 +4521,7 @@
         <v>20955</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2">
         <v>360</v>
@@ -4540,10 +4529,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C83" s="3">
         <v>7893</v>
@@ -4552,7 +4541,7 @@
         <v>20955</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2">
         <v>360</v>
@@ -4560,10 +4549,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C84" s="3">
         <v>36893</v>
@@ -4572,7 +4561,7 @@
         <v>51955</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2">
         <v>360</v>
@@ -4580,10 +4569,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C85" s="3">
         <v>7893</v>
@@ -4592,7 +4581,7 @@
         <v>51955</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2">
         <v>360</v>
@@ -4600,10 +4589,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C86" s="3">
         <v>36431</v>
@@ -4612,7 +4601,7 @@
         <v>18641</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2">
         <v>360</v>
@@ -4620,10 +4609,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C87" s="3">
         <v>7431</v>
@@ -4632,7 +4621,7 @@
         <v>18641</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2">
         <v>360</v>
@@ -4640,10 +4629,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C88" s="3">
         <v>36431</v>
@@ -4652,7 +4641,7 @@
         <v>49641</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2">
         <v>360</v>
@@ -4660,10 +4649,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C89" s="3">
         <v>7431</v>
@@ -4672,7 +4661,7 @@
         <v>49641</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2">
         <v>360</v>
@@ -4680,10 +4669,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C90" s="3">
         <v>35923</v>
@@ -4692,7 +4681,7 @@
         <v>16482</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2">
         <v>360</v>
@@ -4700,10 +4689,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C91" s="3">
         <v>6923</v>
@@ -4712,7 +4701,7 @@
         <v>16482</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2">
         <v>360</v>
@@ -4720,10 +4709,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C92" s="3">
         <v>35923</v>
@@ -4732,7 +4721,7 @@
         <v>47482</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2">
         <v>360</v>
@@ -4740,10 +4729,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C93" s="3">
         <v>6923</v>
@@ -4752,7 +4741,7 @@
         <v>47482</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2">
         <v>360</v>
@@ -4760,10 +4749,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C94" s="3">
         <v>35923</v>
@@ -4772,7 +4761,7 @@
         <v>14450</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2">
         <v>180</v>
@@ -4780,10 +4769,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C95" s="3">
         <v>6923</v>
@@ -4792,7 +4781,7 @@
         <v>14450</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2">
         <v>180</v>
@@ -4800,10 +4789,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C96" s="3">
         <v>35923</v>
@@ -4812,7 +4801,7 @@
         <v>45450</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2">
         <v>180</v>
@@ -4820,10 +4809,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C97" s="3">
         <v>6923</v>
@@ -4832,7 +4821,7 @@
         <v>45450</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2">
         <v>180</v>
@@ -4840,10 +4829,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C98" s="3">
         <v>47861</v>
@@ -4852,7 +4841,7 @@
         <v>12799</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2">
         <v>180</v>
@@ -4860,10 +4849,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C99" s="3">
         <v>18861</v>
@@ -4872,7 +4861,7 @@
         <v>12799</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2">
         <v>180</v>
@@ -4880,10 +4869,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C100" s="3">
         <v>47861</v>
@@ -4892,7 +4881,7 @@
         <v>43799</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2">
         <v>180</v>
@@ -4900,10 +4889,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C101" s="3">
         <v>18861</v>
@@ -4912,7 +4901,7 @@
         <v>43799</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2">
         <v>180</v>
@@ -4920,10 +4909,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C102" s="3">
         <v>40576</v>
@@ -4932,7 +4921,7 @@
         <v>18796</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2">
         <v>360</v>
@@ -4940,10 +4929,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C103" s="3">
         <v>11576</v>
@@ -4952,7 +4941,7 @@
         <v>18796</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2">
         <v>360</v>
@@ -4960,10 +4949,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C104" s="3">
         <v>40576</v>
@@ -4972,7 +4961,7 @@
         <v>49796</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2">
         <v>360</v>
@@ -4980,10 +4969,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C105" s="3">
         <v>11576</v>
@@ -4992,7 +4981,7 @@
         <v>49796</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2">
         <v>360</v>
@@ -5000,10 +4989,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C106" s="3">
         <v>40246</v>
@@ -5012,7 +5001,7 @@
         <v>28321</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2">
         <v>360</v>
@@ -5020,10 +5009,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C107" s="3">
         <v>11246</v>
@@ -5032,7 +5021,7 @@
         <v>28321</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2">
         <v>360</v>
@@ -5040,10 +5029,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C108" s="3">
         <v>40246</v>
@@ -5052,7 +5041,7 @@
         <v>59321</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2">
         <v>360</v>
@@ -5060,10 +5049,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C109" s="3">
         <v>11246</v>
@@ -5072,7 +5061,7 @@
         <v>59321</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2">
         <v>360</v>
@@ -5080,10 +5069,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C110" s="3">
         <v>43878</v>
@@ -5092,7 +5081,7 @@
         <v>28321</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F110" s="2">
         <v>360</v>
@@ -5100,10 +5089,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C111" s="3">
         <v>14878</v>
@@ -5112,7 +5101,7 @@
         <v>28321</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F111" s="2">
         <v>360</v>
@@ -5120,10 +5109,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C112" s="3">
         <v>43878</v>
@@ -5132,7 +5121,7 @@
         <v>59321</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2">
         <v>360</v>
@@ -5140,10 +5129,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C113" s="3">
         <v>14878</v>
@@ -5152,7 +5141,7 @@
         <v>59321</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2">
         <v>360</v>
@@ -5160,10 +5149,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C114" s="3">
         <v>40195</v>
@@ -5172,7 +5161,7 @@
         <v>23495</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F114" s="2">
         <v>360</v>
@@ -5180,10 +5169,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C115" s="3">
         <v>11195</v>
@@ -5192,7 +5181,7 @@
         <v>23495</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2">
         <v>360</v>
@@ -5200,10 +5189,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C116" s="3">
         <v>40195</v>
@@ -5212,7 +5201,7 @@
         <v>54495</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2">
         <v>360</v>
@@ -5220,10 +5209,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C117" s="3">
         <v>11195</v>
@@ -5232,7 +5221,7 @@
         <v>54495</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F117" s="2">
         <v>360</v>
@@ -5240,10 +5229,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C118" s="3">
         <v>43878</v>
@@ -5252,7 +5241,7 @@
         <v>23495</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2">
         <v>360</v>
@@ -5260,10 +5249,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C119" s="3">
         <v>14878</v>
@@ -5272,7 +5261,7 @@
         <v>23495</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2">
         <v>360</v>
@@ -5280,10 +5269,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C120" s="3">
         <v>43878</v>
@@ -5292,7 +5281,7 @@
         <v>54495</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2">
         <v>360</v>
@@ -5300,10 +5289,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C121" s="3">
         <v>14878</v>
@@ -5312,7 +5301,7 @@
         <v>54495</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2">
         <v>360</v>
@@ -5320,10 +5309,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C122" s="3">
         <v>40576</v>
@@ -5332,7 +5321,7 @@
         <v>16764</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2">
         <v>360</v>
@@ -5340,10 +5329,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C123" s="3">
         <v>11576</v>
@@ -5352,7 +5341,7 @@
         <v>16764</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2">
         <v>360</v>
@@ -5360,10 +5349,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C124" s="3">
         <v>40576</v>
@@ -5372,7 +5361,7 @@
         <v>47764</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2">
         <v>360</v>
@@ -5380,10 +5369,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C125" s="3">
         <v>11576</v>
@@ -5392,7 +5381,7 @@
         <v>47764</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2">
         <v>360</v>
@@ -5400,10 +5389,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C126" s="3">
         <v>36258</v>
@@ -5412,7 +5401,7 @@
         <v>24765</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2">
         <v>180</v>
@@ -5420,10 +5409,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C127" s="3">
         <v>7258</v>
@@ -5432,7 +5421,7 @@
         <v>24765</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2">
         <v>180</v>
@@ -5440,10 +5429,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C128" s="3">
         <v>36258</v>
@@ -5452,7 +5441,7 @@
         <v>55765</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F128" s="2">
         <v>180</v>
@@ -5460,10 +5449,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C129" s="3">
         <v>7258</v>
@@ -5472,7 +5461,7 @@
         <v>55765</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2">
         <v>180</v>
@@ -5480,10 +5469,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C130" s="3">
         <v>41511</v>
@@ -5492,7 +5481,7 @@
         <v>11161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F130" s="2">
         <v>360</v>
@@ -5500,10 +5489,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C131" s="3">
         <v>12511</v>
@@ -5512,7 +5501,7 @@
         <v>11161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2">
         <v>360</v>
@@ -5520,10 +5509,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C132" s="3">
         <v>41511</v>
@@ -5532,7 +5521,7 @@
         <v>42161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2">
         <v>360</v>
@@ -5540,10 +5529,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="3">
         <v>12511</v>
@@ -5552,7 +5541,7 @@
         <v>42161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2">
         <v>360</v>
@@ -5560,10 +5549,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C134" s="3">
         <v>96802</v>
@@ -5572,7 +5561,7 @@
         <v>48526</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2">
         <v>180</v>
@@ -5580,10 +5569,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C135" s="3">
         <v>143002</v>
@@ -5592,7 +5581,7 @@
         <v>48526</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F135" s="2">
         <v>180</v>
@@ -5600,10 +5589,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C136" s="3">
         <v>96802</v>
@@ -5612,7 +5601,7 @@
         <v>17526</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F136" s="2">
         <v>180</v>
@@ -5620,10 +5609,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C137" s="3">
         <v>143002</v>
@@ -5632,7 +5621,7 @@
         <v>17526</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2">
         <v>180</v>
@@ -5640,10 +5629,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C138" s="3">
         <v>48650</v>
@@ -5652,7 +5641,7 @@
         <v>28321</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2">
         <v>360</v>
@@ -5660,10 +5649,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C139" s="3">
         <v>19650</v>
@@ -5672,7 +5661,7 @@
         <v>28321</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F139" s="2">
         <v>360</v>
@@ -5680,10 +5669,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C140" s="3">
         <v>48650</v>
@@ -5692,7 +5681,7 @@
         <v>59321</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F140" s="2">
         <v>360</v>
@@ -5700,10 +5689,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C141" s="3">
         <v>19650</v>
@@ -5712,7 +5701,7 @@
         <v>59321</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F141" s="2">
         <v>360</v>
@@ -5720,10 +5709,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C142" s="3">
         <v>48650</v>
@@ -5732,7 +5721,7 @@
         <v>23749</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F142" s="2">
         <v>360</v>
@@ -5740,10 +5729,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C143" s="3">
         <v>19650</v>
@@ -5752,7 +5741,7 @@
         <v>23749</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2">
         <v>360</v>
@@ -5760,10 +5749,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C144" s="3">
         <v>48650</v>
@@ -5772,7 +5761,7 @@
         <v>54749</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F144" s="2">
         <v>360</v>
@@ -5780,10 +5769,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C145" s="3">
         <v>19650</v>
@@ -5792,7 +5781,7 @@
         <v>54749</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F145" s="2">
         <v>360</v>
@@ -5800,10 +5789,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C146" s="3">
         <v>100993</v>
@@ -5812,7 +5801,7 @@
         <v>47510</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F146" s="2">
         <v>360</v>
@@ -5820,10 +5809,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C147" s="3">
         <v>147193</v>
@@ -5832,7 +5821,7 @@
         <v>47510</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2">
         <v>360</v>
@@ -5840,10 +5829,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C148" s="3">
         <v>100993</v>
@@ -5852,7 +5841,7 @@
         <v>16510</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F148" s="2">
         <v>360</v>
@@ -5860,10 +5849,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C149" s="3">
         <v>147193</v>
@@ -5872,7 +5861,7 @@
         <v>16510</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2">
         <v>360</v>
@@ -5880,10 +5869,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C150" s="3">
         <v>36304</v>
@@ -5892,7 +5881,7 @@
         <v>9751</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2">
         <v>180</v>
@@ -5900,10 +5889,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C151" s="3">
         <v>7304</v>
@@ -5912,7 +5901,7 @@
         <v>9751</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2">
         <v>180</v>
@@ -5920,10 +5909,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C152" s="3">
         <v>36304</v>
@@ -5932,7 +5921,7 @@
         <v>40751</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2">
         <v>180</v>
@@ -5940,10 +5929,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C153" s="3">
         <v>7304</v>
@@ -5952,7 +5941,7 @@
         <v>40751</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2">
         <v>180</v>
@@ -5960,10 +5949,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C154" s="3">
         <v>36304</v>
@@ -5972,7 +5961,7 @@
         <v>7846</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2">
         <v>180</v>
@@ -5980,10 +5969,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C155" s="3">
         <v>7304</v>
@@ -5992,7 +5981,7 @@
         <v>7846</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2">
         <v>180</v>
@@ -6000,10 +5989,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C156" s="3">
         <v>36304</v>
@@ -6012,7 +6001,7 @@
         <v>38846</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2">
         <v>180</v>
@@ -6020,10 +6009,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C157" s="3">
         <v>7304</v>
@@ -6032,7 +6021,7 @@
         <v>38846</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2">
         <v>180</v>
@@ -6040,10 +6029,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C158" s="3">
         <v>36431</v>
@@ -6052,7 +6041,7 @@
         <v>11656</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2">
         <v>180</v>
@@ -6060,10 +6049,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C159" s="3">
         <v>7431</v>
@@ -6072,7 +6061,7 @@
         <v>11656</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2">
         <v>180</v>
@@ -6080,10 +6069,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C160" s="3">
         <v>36431</v>
@@ -6092,7 +6081,7 @@
         <v>42656</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F160" s="2">
         <v>180</v>
@@ -6100,10 +6089,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C161" s="3">
         <v>7431</v>
@@ -6112,7 +6101,7 @@
         <v>42656</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F161" s="2">
         <v>180</v>
@@ -6120,10 +6109,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C162" s="3">
         <v>45829</v>
@@ -6132,7 +6121,7 @@
         <v>8354</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F162" s="2">
         <v>90</v>
@@ -6140,10 +6129,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C163" s="3">
         <v>16829</v>
@@ -6152,7 +6141,7 @@
         <v>8354</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F163" s="2">
         <v>90</v>
@@ -6160,10 +6149,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C164" s="3">
         <v>45829</v>
@@ -6172,7 +6161,7 @@
         <v>39354</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F164" s="2">
         <v>90</v>
@@ -6180,10 +6169,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C165" s="3">
         <v>16829</v>
@@ -6192,7 +6181,7 @@
         <v>39354</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F165" s="2">
         <v>90</v>
@@ -6200,10 +6189,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C166" s="3">
         <v>47734</v>
@@ -6212,7 +6201,7 @@
         <v>8354</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F166" s="2">
         <v>90</v>
@@ -6220,10 +6209,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C167" s="3">
         <v>18734</v>
@@ -6232,7 +6221,7 @@
         <v>8354</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F167" s="2">
         <v>90</v>
@@ -6240,10 +6229,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C168" s="3">
         <v>47734</v>
@@ -6252,7 +6241,7 @@
         <v>39354</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F168" s="2">
         <v>90</v>
@@ -6260,10 +6249,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C169" s="3">
         <v>18734</v>
@@ -6272,7 +6261,7 @@
         <v>39354</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F169" s="2">
         <v>90</v>
@@ -6280,10 +6269,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C170" s="3">
         <v>49639</v>
@@ -6292,7 +6281,7 @@
         <v>8354</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F170" s="2">
         <v>90</v>
@@ -6300,10 +6289,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C171" s="3">
         <v>20639</v>
@@ -6312,7 +6301,7 @@
         <v>8354</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F171" s="2">
         <v>90</v>
@@ -6320,10 +6309,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C172" s="3">
         <v>49639</v>
@@ -6332,7 +6321,7 @@
         <v>39354</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2">
         <v>90</v>
@@ -6340,10 +6329,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C173" s="3">
         <v>20639</v>
@@ -6352,7 +6341,7 @@
         <v>39354</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F173" s="2">
         <v>90</v>
@@ -6360,10 +6349,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C174" s="3">
         <v>47434</v>
@@ -6372,7 +6361,7 @@
         <v>15748</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F174" s="2">
         <v>90</v>
@@ -6380,10 +6369,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C175" s="3">
         <v>18434</v>
@@ -6392,7 +6381,7 @@
         <v>15748</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2">
         <v>90</v>
@@ -6400,10 +6389,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C176" s="3">
         <v>47434</v>
@@ -6412,7 +6401,7 @@
         <v>46748</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F176" s="2">
         <v>90</v>
@@ -6420,10 +6409,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C177" s="3">
         <v>18434</v>
@@ -6432,7 +6421,7 @@
         <v>46748</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F177" s="2">
         <v>90</v>
@@ -6440,10 +6429,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C178" s="3">
         <v>36258</v>
@@ -6452,7 +6441,7 @@
         <v>28067</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F178" s="2">
         <v>180</v>
@@ -6460,10 +6449,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C179" s="3">
         <v>7258</v>
@@ -6472,7 +6461,7 @@
         <v>28067</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F179" s="2">
         <v>180</v>
@@ -6480,10 +6469,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C180" s="3">
         <v>36258</v>
@@ -6492,7 +6481,7 @@
         <v>59067</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2">
         <v>180</v>
@@ -6500,10 +6489,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C181" s="3">
         <v>7258</v>
@@ -6512,7 +6501,7 @@
         <v>59067</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F181" s="2">
         <v>180</v>

--- a/BOM BLDC BOARD.xlsx
+++ b/BOM BLDC BOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/rover-embedded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4111FFE-EEF3-499A-8013-B377CD062EEF}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291AAFF0-7E79-4470-B310-7A5B85252A0A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>CPC1017NTR</t>
   </si>
   <si>
-    <t>MCP1825S-3302E/DB</t>
-  </si>
-  <si>
     <t>TM4C123GH6PMI</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>SOT230P700X180-4N</t>
-  </si>
-  <si>
     <t>FT230XQ-R</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>CLA233CT-ND</t>
   </si>
   <si>
-    <t>MCP1825S-3302E/DB-ND</t>
-  </si>
-  <si>
     <t>296-35848-ND</t>
   </si>
   <si>
@@ -579,9 +570,6 @@
     <t>768-1130-1-ND</t>
   </si>
   <si>
-    <t>500 mA, Low Voltage, Low Quiescent Current LDO Regulator</t>
-  </si>
-  <si>
     <t>Tiva TM4C123GH6PM Microcontroller ARM Cortex 80 MHz FPU</t>
   </si>
   <si>
@@ -781,13 +769,25 @@
   </si>
   <si>
     <t xml:space="preserve">Tray </t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 500MA TO220-3</t>
+  </si>
+  <si>
+    <t>MCP1825S-3302E/AB-ND</t>
+  </si>
+  <si>
+    <t>MCP1825S-3302E/AB</t>
+  </si>
+  <si>
+    <t>TO-220-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +909,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -975,7 +981,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1053,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,8 +1068,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1469,10 +1481,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1595,22 +1607,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1637,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1654,20 +1666,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="25.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A2" s="5" t="s">
@@ -1689,10 +1701,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>29</v>
@@ -1718,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1727,17 +1739,17 @@
         <v>104</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J3" s="5">
         <f>C3*2</f>
@@ -1767,14 +1779,14 @@
         <v>1206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J12" si="0">C4*2</f>
@@ -1792,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
@@ -1801,17 +1813,17 @@
         <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
@@ -1829,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -1838,17 +1850,17 @@
         <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
@@ -1866,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -1875,17 +1887,17 @@
         <v>107</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
@@ -1903,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
@@ -1915,14 +1927,14 @@
         <v>1206</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
@@ -1940,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -1949,17 +1961,17 @@
         <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
@@ -1977,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -1986,17 +1998,17 @@
         <v>109</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
@@ -2014,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -2023,17 +2035,17 @@
         <v>110</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
@@ -2062,17 +2074,17 @@
         <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
@@ -2090,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -2099,17 +2111,17 @@
         <v>111</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J13" s="5">
         <v>2</v>
@@ -2126,26 +2138,26 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -2162,26 +2174,26 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F15" s="5">
         <v>768250006</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5">
@@ -2198,26 +2210,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F16" s="5">
         <v>436500200</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5">
@@ -2234,26 +2246,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="10">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F17" s="5">
         <v>430450428</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5">
@@ -2270,26 +2282,26 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F18" s="5">
         <v>430450600</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5">
@@ -2306,26 +2318,26 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F19" s="5">
         <v>1054051112</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J19" s="5">
         <v>12</v>
@@ -2342,26 +2354,26 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F20" s="23">
         <v>462070004</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5">
@@ -2378,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -2387,17 +2399,17 @@
         <v>112</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -2414,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
@@ -2455,17 +2467,17 @@
         <v>114</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J23" s="5">
         <f>C23*2</f>
@@ -2483,26 +2495,26 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="10">
         <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ref="J24:J27" si="1">C24*2</f>
@@ -2520,7 +2532,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
@@ -2529,17 +2541,17 @@
         <v>27</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="1"/>
@@ -2557,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -2566,17 +2578,17 @@
         <v>120</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="1"/>
@@ -2594,7 +2606,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="10">
         <v>6</v>
@@ -2603,17 +2615,17 @@
         <v>150</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="1"/>
@@ -2631,7 +2643,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -2640,17 +2652,17 @@
         <v>115</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J28" s="5">
         <v>4</v>
@@ -2667,31 +2679,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>147</v>
+      <c r="D29" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J29" s="5">
-        <v>4</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>245</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
       <c r="L29" s="5" t="s">
         <v>35</v>
       </c>
@@ -2709,20 +2721,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J30" s="5">
         <v>64</v>
@@ -2745,22 +2757,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="29">
+        <v>179</v>
+      </c>
+      <c r="J31" s="25">
         <v>16</v>
       </c>
       <c r="K31" s="19"/>
@@ -2775,28 +2787,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F32" s="29">
+        <v>244</v>
+      </c>
+      <c r="F32" s="25">
         <v>670688010</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="29">
+        <v>242</v>
+      </c>
+      <c r="J32" s="25">
         <v>4</v>
       </c>
       <c r="K32" s="19"/>
@@ -2811,28 +2823,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J33" s="29">
+        <v>180</v>
+      </c>
+      <c r="J33" s="25">
         <v>4</v>
       </c>
       <c r="K33" s="19"/>

--- a/BOM BLDC BOARD.xlsx
+++ b/BOM BLDC BOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceae1324418798fe/McGill/McGill Robotics/PCBs/rover-embedded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291AAFF0-7E79-4470-B310-7A5B85252A0A}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{2539F183-17B1-41CD-A02E-20338CC094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3BA6697-7717-4871-9846-B336B36AE4F3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,16 +771,16 @@
     <t xml:space="preserve">Tray </t>
   </si>
   <si>
-    <t>IC REG LINEAR 3.3V 500MA TO220-3</t>
-  </si>
-  <si>
-    <t>MCP1825S-3302E/AB-ND</t>
-  </si>
-  <si>
-    <t>MCP1825S-3302E/AB</t>
-  </si>
-  <si>
-    <t>TO-220-3</t>
+    <t>500 mA, Low Voltage, Low Quiescent Current LDO Regulator</t>
+  </si>
+  <si>
+    <t>MCP1825S-3302E/DB-ND</t>
+  </si>
+  <si>
+    <t>MCP1825S-3302E/DB</t>
+  </si>
+  <si>
+    <t>SOT-223-3</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,12 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1481,10 +1481,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1607,22 +1607,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1666,20 +1666,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="25.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="13.5">
       <c r="A2" s="5" t="s">
@@ -2684,10 +2684,10 @@
       <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="26" t="s">
         <v>248</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -2700,10 +2700,10 @@
       <c r="I29" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="J29" s="5">
         <v>3</v>
       </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
         <v>35</v>
       </c>
